--- a/08_Protect_Mode/15 任务段实验.xlsx
+++ b/08_Protect_Mode/15 任务段实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E2AEAD-C511-41B9-9DC0-B6A0CC120384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762E60B-D626-4292-BA99-B6D74C80D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="169">
   <si>
     <t>任务段实验</t>
   </si>
@@ -3583,6 +3583,54 @@
       </rPr>
       <t>，0环权限</t>
     </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个任务都自己的 TSS，TSS中前两个字节保留上一个TSS的段选子，形成一个类似链表的任务链。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdt</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tr寄存器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>tss4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre tss link</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务切换先会修改TR寄存器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过TR寄存器，找到内存中TSS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后修改，其他寄存器。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3590,7 +3638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3769,6 +3817,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3784,7 +3841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3792,24 +3849,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3834,6 +3902,8 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3853,6 +3923,276 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接箭头连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33BFBD88-72B0-3DFB-99B8-E47E4B23B646}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5494020" y="1234440"/>
+          <a:ext cx="838200" cy="617220"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直接箭头连接符 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD509AB3-8236-47A6-9C15-409F719ECFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4541520" y="1973580"/>
+          <a:ext cx="716280" cy="723900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624B80C2-1E30-4B98-9FD5-929743804C03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4808220" y="2781300"/>
+          <a:ext cx="906780" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE5DE3C1-0DCA-4286-9241-12BBD2177BFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7490460" y="2781300"/>
+          <a:ext cx="762000" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10008CCF-F82F-4960-8DDB-3197706084AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6042660" y="2788920"/>
+          <a:ext cx="906780" cy="30480"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4360,2694 +4700,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R144"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="22.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B3" s="20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="23" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="K5" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="Q21" s="7"/>
-      <c r="R21" s="7"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
-      <c r="R25" s="7"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B31" s="6"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7"/>
-      <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-    </row>
-    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="7"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
-      <c r="P37" s="7"/>
-      <c r="Q37" s="7"/>
-      <c r="R37" s="7"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7"/>
-      <c r="Q38" s="7"/>
-      <c r="R38" s="7"/>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
-      <c r="P39" s="7"/>
-      <c r="Q39" s="7"/>
-      <c r="R39" s="7"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B40" s="6"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
-      <c r="P41" s="7"/>
-      <c r="Q41" s="7"/>
-      <c r="R41" s="7"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B43" s="6"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
-      <c r="R43" s="7"/>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B44" s="6"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B45" s="6"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="7"/>
-      <c r="R46" s="7"/>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B47" s="6"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="7"/>
-      <c r="Q47" s="7"/>
-      <c r="R47" s="7"/>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B48" s="6"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="6"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
-      <c r="P49" s="7"/>
-      <c r="Q49" s="7"/>
-      <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7"/>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-    </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-    </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-    </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="6"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="7"/>
-      <c r="M53" s="7"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
-      <c r="P53" s="7"/>
-      <c r="Q53" s="7"/>
-      <c r="R53" s="7"/>
-    </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-    </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="6"/>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-    </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="6"/>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="7"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-    </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="6"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
-      <c r="R57" s="7"/>
-    </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="6"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
-      <c r="Q58" s="7"/>
-      <c r="R58" s="7"/>
-    </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="6"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
-      <c r="Q59" s="7"/>
-      <c r="R59" s="7"/>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="6"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="6"/>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7"/>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="7"/>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
-      <c r="Q61" s="7"/>
-      <c r="R61" s="7"/>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="I62" s="7"/>
-      <c r="J62" s="7"/>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
-      <c r="Q62" s="7"/>
-      <c r="R62" s="7"/>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="6"/>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
-      <c r="Q63" s="7"/>
-      <c r="R63" s="7"/>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="6"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="7"/>
-      <c r="J64" s="7"/>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
-      <c r="Q64" s="7"/>
-      <c r="R64" s="7"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B65" s="6"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7"/>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="7"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
-      <c r="P65" s="7"/>
-      <c r="Q65" s="7"/>
-      <c r="R65" s="7"/>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B66" s="6"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B67" s="6"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
-      <c r="Q67" s="7"/>
-      <c r="R67" s="7"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B68" s="6"/>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
-      <c r="J68" s="7"/>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="7"/>
-      <c r="R68" s="7"/>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B69" s="6"/>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
-      <c r="Q69" s="7"/>
-      <c r="R69" s="7"/>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B70" s="6"/>
-      <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="I70" s="7"/>
-      <c r="J70" s="7"/>
-      <c r="K70" s="7"/>
-      <c r="L70" s="7"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B71" s="6"/>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="7"/>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
-      <c r="Q71" s="7"/>
-      <c r="R71" s="7"/>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B72" s="6"/>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B73" s="6"/>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B74" s="6"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7"/>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B75" s="6"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="7"/>
-      <c r="M75" s="7"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
-      <c r="P75" s="7"/>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7"/>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B76" s="6"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7"/>
-      <c r="J76" s="7"/>
-      <c r="K76" s="7"/>
-      <c r="L76" s="7"/>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B77" s="6"/>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
-      <c r="Q77" s="7"/>
-      <c r="R77" s="7"/>
-    </row>
-    <row r="78" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B78" s="6"/>
-      <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="I78" s="7"/>
-      <c r="J78" s="7"/>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
-      <c r="Q78" s="7"/>
-      <c r="R78" s="7"/>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
-      <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="7"/>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
-      <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
-    </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B80" s="6"/>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-    </row>
-    <row r="81" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-      <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="7"/>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
-      <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-    </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="6"/>
-      <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="I82" s="7"/>
-      <c r="J82" s="7"/>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-    </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="6"/>
-      <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="7"/>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-    </row>
-    <row r="84" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B84" s="6"/>
-      <c r="C84" s="7"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="I84" s="7"/>
-      <c r="J84" s="7"/>
-      <c r="K84" s="7"/>
-      <c r="L84" s="7"/>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-    </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="6"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="I85" s="7"/>
-      <c r="J85" s="7"/>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-    </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="6"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="I86" s="7"/>
-      <c r="J86" s="7"/>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-    </row>
-    <row r="87" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B87" s="6"/>
-      <c r="C87" s="7"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="I87" s="7"/>
-      <c r="J87" s="7"/>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-    </row>
-    <row r="88" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B88" s="6"/>
-      <c r="C88" s="7"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="7"/>
-      <c r="K88" s="7"/>
-      <c r="L88" s="7"/>
-      <c r="M88" s="7"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-    </row>
-    <row r="89" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B89" s="6"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="I89" s="7"/>
-      <c r="J89" s="7"/>
-      <c r="K89" s="7"/>
-      <c r="L89" s="7"/>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-    </row>
-    <row r="90" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B90" s="6"/>
-      <c r="C90" s="7"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="I90" s="7"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-    </row>
-    <row r="91" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B91" s="6"/>
-      <c r="C91" s="7"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="7"/>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-    </row>
-    <row r="92" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-      <c r="C92" s="7"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="I92" s="7"/>
-      <c r="J92" s="7"/>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-    </row>
-    <row r="93" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B93" s="6"/>
-      <c r="C93" s="7"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="I93" s="7"/>
-      <c r="J93" s="7"/>
-      <c r="K93" s="7"/>
-      <c r="L93" s="7"/>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-    </row>
-    <row r="94" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B94" s="6"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="I94" s="7"/>
-      <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-    </row>
-    <row r="95" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B95" s="6"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="I95" s="7"/>
-      <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-    </row>
-    <row r="96" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B96" s="6"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="I96" s="7"/>
-      <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-    </row>
-    <row r="97" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B97" s="6"/>
-      <c r="C97" s="7"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
-      <c r="J97" s="7"/>
-      <c r="K97" s="7"/>
-      <c r="L97" s="7"/>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-    </row>
-    <row r="98" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B98" s="6"/>
-      <c r="C98" s="7"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7"/>
-      <c r="I98" s="7"/>
-      <c r="J98" s="7"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B99" s="6"/>
-      <c r="C99" s="7"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="7"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="7"/>
-      <c r="J99" s="7"/>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="6"/>
-      <c r="C100" s="7"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-    </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B101" s="6"/>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-    </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B102" s="6"/>
-      <c r="C102" s="7"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="7"/>
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-    </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B103" s="6"/>
-      <c r="C103" s="7"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
-      <c r="I103" s="7"/>
-      <c r="J103" s="7"/>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-    </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B104" s="6"/>
-      <c r="C104" s="7"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
-      <c r="H104" s="7"/>
-      <c r="I104" s="7"/>
-      <c r="J104" s="7"/>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-    </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B105" s="6"/>
-      <c r="C105" s="7"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
-      <c r="I105" s="7"/>
-      <c r="J105" s="7"/>
-      <c r="K105" s="7"/>
-      <c r="L105" s="7"/>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-    </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B106" s="6"/>
-      <c r="C106" s="7"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
-      <c r="I106" s="7"/>
-      <c r="J106" s="7"/>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-    </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B107" s="6"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-    </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B108" s="6"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
-      <c r="I108" s="7"/>
-      <c r="J108" s="7"/>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-    </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B109" s="6"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
-      <c r="H109" s="7"/>
-      <c r="I109" s="7"/>
-      <c r="J109" s="7"/>
-      <c r="K109" s="7"/>
-      <c r="L109" s="7"/>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-    </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B110" s="6"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="7"/>
-      <c r="I110" s="7"/>
-      <c r="J110" s="7"/>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-    </row>
-    <row r="111" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B111" s="6"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="7"/>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-    </row>
-    <row r="112" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B112" s="6"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="7"/>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-    </row>
-    <row r="113" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B113" s="6"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="7"/>
-      <c r="K113" s="7"/>
-      <c r="L113" s="7"/>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-    </row>
-    <row r="114" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B114" s="6"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
-      <c r="I114" s="7"/>
-      <c r="J114" s="7"/>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-    </row>
-    <row r="115" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B115" s="6"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="7"/>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-    </row>
-    <row r="116" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B116" s="6"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="7"/>
-      <c r="G116" s="7"/>
-      <c r="H116" s="7"/>
-      <c r="I116" s="7"/>
-      <c r="J116" s="7"/>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-    </row>
-    <row r="117" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B117" s="6"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="7"/>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-    </row>
-    <row r="118" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B118" s="6"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7"/>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-    </row>
-    <row r="119" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
-      <c r="G119" s="7"/>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-    </row>
-    <row r="120" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="7"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7"/>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-    </row>
-    <row r="121" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B121" s="6"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="7"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7"/>
-      <c r="L121" s="7"/>
-      <c r="M121" s="7"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-    </row>
-    <row r="122" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B122" s="6"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="7"/>
-      <c r="G122" s="7"/>
-      <c r="H122" s="7"/>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7"/>
-      <c r="K122" s="7"/>
-      <c r="L122" s="7"/>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-    </row>
-    <row r="123" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B123" s="6"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="7"/>
-      <c r="J123" s="7"/>
-      <c r="K123" s="7"/>
-      <c r="L123" s="7"/>
-      <c r="M123" s="7"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B124" s="6"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="7"/>
-      <c r="J124" s="7"/>
-      <c r="K124" s="7"/>
-      <c r="L124" s="7"/>
-      <c r="M124" s="7"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-    </row>
-    <row r="125" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B125" s="6"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="7"/>
-      <c r="J125" s="7"/>
-      <c r="K125" s="7"/>
-      <c r="L125" s="7"/>
-      <c r="M125" s="7"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-    </row>
-    <row r="126" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B126" s="6"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="7"/>
-      <c r="J126" s="7"/>
-      <c r="K126" s="7"/>
-      <c r="L126" s="7"/>
-      <c r="M126" s="7"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-    </row>
-    <row r="127" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B127" s="6"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="7"/>
-      <c r="J127" s="7"/>
-      <c r="K127" s="7"/>
-      <c r="L127" s="7"/>
-      <c r="M127" s="7"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-    </row>
-    <row r="128" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B128" s="6"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="7"/>
-      <c r="J128" s="7"/>
-      <c r="K128" s="7"/>
-      <c r="L128" s="7"/>
-      <c r="M128" s="7"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-    </row>
-    <row r="129" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="7"/>
-      <c r="J129" s="7"/>
-      <c r="K129" s="7"/>
-      <c r="L129" s="7"/>
-      <c r="M129" s="7"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-    </row>
-    <row r="130" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B130" s="6"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="7"/>
-      <c r="J130" s="7"/>
-      <c r="K130" s="7"/>
-      <c r="L130" s="7"/>
-      <c r="M130" s="7"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-    </row>
-    <row r="131" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B131" s="6"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="7"/>
-      <c r="M131" s="7"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-    </row>
-    <row r="132" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B132" s="6"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="7"/>
-      <c r="J132" s="7"/>
-      <c r="K132" s="7"/>
-      <c r="L132" s="7"/>
-      <c r="M132" s="7"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-    </row>
-    <row r="133" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B133" s="6"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="7"/>
-      <c r="J133" s="7"/>
-      <c r="K133" s="7"/>
-      <c r="L133" s="7"/>
-      <c r="M133" s="7"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
-    </row>
-    <row r="134" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B134" s="6"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="7"/>
-      <c r="J134" s="7"/>
-      <c r="K134" s="7"/>
-      <c r="L134" s="7"/>
-      <c r="M134" s="7"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
-      <c r="P134" s="7"/>
-      <c r="Q134" s="7"/>
-      <c r="R134" s="7"/>
-    </row>
-    <row r="135" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B135" s="6"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="7"/>
-      <c r="J135" s="7"/>
-      <c r="K135" s="7"/>
-      <c r="L135" s="7"/>
-      <c r="M135" s="7"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
-      <c r="P135" s="7"/>
-      <c r="Q135" s="7"/>
-      <c r="R135" s="7"/>
-    </row>
-    <row r="136" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B136" s="6"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="7"/>
-      <c r="J136" s="7"/>
-      <c r="K136" s="7"/>
-      <c r="L136" s="7"/>
-      <c r="M136" s="7"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
-      <c r="P136" s="7"/>
-      <c r="Q136" s="7"/>
-      <c r="R136" s="7"/>
-    </row>
-    <row r="137" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B137" s="6"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="7"/>
-      <c r="J137" s="7"/>
-      <c r="K137" s="7"/>
-      <c r="L137" s="7"/>
-      <c r="M137" s="7"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
-      <c r="P137" s="7"/>
-      <c r="Q137" s="7"/>
-      <c r="R137" s="7"/>
-    </row>
-    <row r="138" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B138" s="6"/>
-      <c r="C138" s="7"/>
-      <c r="D138" s="7"/>
-      <c r="E138" s="7"/>
-      <c r="F138" s="7"/>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
-      <c r="I138" s="7"/>
-      <c r="J138" s="7"/>
-      <c r="K138" s="7"/>
-      <c r="L138" s="7"/>
-      <c r="M138" s="7"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
-      <c r="P138" s="7"/>
-      <c r="Q138" s="7"/>
-      <c r="R138" s="7"/>
-    </row>
-    <row r="139" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B139" s="6"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
-      <c r="I139" s="7"/>
-      <c r="J139" s="7"/>
-      <c r="K139" s="7"/>
-      <c r="L139" s="7"/>
-      <c r="M139" s="7"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
-      <c r="P139" s="7"/>
-      <c r="Q139" s="7"/>
-      <c r="R139" s="7"/>
-    </row>
-    <row r="140" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B140" s="6"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="7"/>
-      <c r="J140" s="7"/>
-      <c r="K140" s="7"/>
-      <c r="L140" s="7"/>
-      <c r="M140" s="7"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
-      <c r="P140" s="7"/>
-      <c r="Q140" s="7"/>
-      <c r="R140" s="7"/>
-    </row>
-    <row r="141" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B141" s="6"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="7"/>
-      <c r="J141" s="7"/>
-      <c r="K141" s="7"/>
-      <c r="L141" s="7"/>
-      <c r="M141" s="7"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
-      <c r="P141" s="7"/>
-      <c r="Q141" s="7"/>
-      <c r="R141" s="7"/>
-    </row>
-    <row r="142" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B142" s="6"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="7"/>
-      <c r="J142" s="7"/>
-      <c r="K142" s="7"/>
-      <c r="L142" s="7"/>
-      <c r="M142" s="7"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
-      <c r="P142" s="7"/>
-      <c r="Q142" s="7"/>
-      <c r="R142" s="7"/>
-    </row>
-    <row r="143" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B143" s="6"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="7"/>
-      <c r="J143" s="7"/>
-      <c r="K143" s="7"/>
-      <c r="L143" s="7"/>
-      <c r="M143" s="7"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
-      <c r="P143" s="7"/>
-      <c r="Q143" s="7"/>
-      <c r="R143" s="7"/>
-    </row>
-    <row r="144" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B144" s="6"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="7"/>
-      <c r="J144" s="7"/>
-      <c r="K144" s="7"/>
-      <c r="L144" s="7"/>
-      <c r="M144" s="7"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
-      <c r="P144" s="7"/>
-      <c r="Q144" s="7"/>
-      <c r="R144" s="7"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="P9" s="15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="I10" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P11" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P14" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q14" s="15"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
+      <c r="H19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>163</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -7057,6 +4854,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7064,14 +4862,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87086FC-644F-463D-A98A-9400E7AFBF20}">
   <dimension ref="B4:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="3"/>
@@ -7085,7 +4883,7 @@
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="3"/>
@@ -7106,7 +4904,7 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -7123,7 +4921,7 @@
       <c r="P6" s="3"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
@@ -7137,7 +4935,7 @@
       <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3"/>
@@ -7151,7 +4949,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -7163,7 +4961,7 @@
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="3"/>
@@ -7177,7 +4975,7 @@
       <c r="K10" s="3"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3"/>
@@ -7191,7 +4989,7 @@
       <c r="K11" s="3"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="3"/>
@@ -7205,7 +5003,7 @@
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -7217,7 +5015,7 @@
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3"/>
@@ -7231,7 +5029,7 @@
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
@@ -7245,7 +5043,7 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3"/>
@@ -7259,7 +5057,7 @@
       <c r="K16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="3"/>
@@ -7273,7 +5071,7 @@
       <c r="K17" s="3"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="3"/>
@@ -7287,7 +5085,7 @@
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C19" s="3"/>
@@ -7301,7 +5099,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="3"/>
@@ -7315,7 +5113,7 @@
       <c r="K20" s="3"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="3"/>
@@ -7329,7 +5127,7 @@
       <c r="K21" s="3"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="3"/>
@@ -7343,7 +5141,7 @@
       <c r="K22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
@@ -7357,7 +5155,7 @@
       <c r="K23" s="3"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="12" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="4"/>
@@ -7372,7 +5170,7 @@
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C25" s="4"/>
@@ -7402,7 +5200,7 @@
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="3"/>
@@ -7416,7 +5214,7 @@
       <c r="K27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3"/>
@@ -7430,7 +5228,7 @@
       <c r="K28" s="3"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -7442,7 +5240,7 @@
       <c r="K29" s="3"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="3"/>
@@ -7456,7 +5254,7 @@
       <c r="K30" s="3"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C31" s="3"/>
@@ -7470,7 +5268,7 @@
       <c r="K31" s="3"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C32" s="3"/>
@@ -7484,7 +5282,7 @@
       <c r="K32" s="3"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="3"/>
@@ -7498,7 +5296,7 @@
       <c r="K33" s="3"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C34" s="3"/>
@@ -7512,7 +5310,7 @@
       <c r="K34" s="3"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C35" s="3"/>
@@ -7526,7 +5324,7 @@
       <c r="K35" s="3"/>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C36" s="3"/>
@@ -7540,7 +5338,7 @@
       <c r="K36" s="3"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="3"/>
@@ -7554,7 +5352,7 @@
       <c r="K37" s="3"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="3"/>
@@ -7568,7 +5366,7 @@
       <c r="K38" s="3"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C39" s="3"/>
@@ -7582,7 +5380,7 @@
       <c r="K39" s="3"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="3"/>
@@ -7596,7 +5394,7 @@
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="3"/>
@@ -7610,7 +5408,7 @@
       <c r="K41" s="3"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C42" s="3"/>
@@ -7624,7 +5422,7 @@
       <c r="K42" s="3"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C43" s="3"/>
@@ -7638,7 +5436,7 @@
       <c r="K43" s="3"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="3"/>
@@ -7652,7 +5450,7 @@
       <c r="K44" s="3"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="3"/>
@@ -7666,7 +5464,7 @@
       <c r="K45" s="3"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="3"/>
@@ -7680,7 +5478,7 @@
       <c r="K46" s="3"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C47" s="3"/>
@@ -7694,7 +5492,7 @@
       <c r="K47" s="3"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C48" s="3"/>
@@ -7708,7 +5506,7 @@
       <c r="K48" s="3"/>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C49" s="3"/>
@@ -7722,7 +5520,7 @@
       <c r="K49" s="3"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C50" s="3"/>
@@ -7736,7 +5534,7 @@
       <c r="K50" s="3"/>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="3"/>
@@ -7750,7 +5548,7 @@
       <c r="K51" s="3"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C52" s="3"/>
@@ -7764,7 +5562,7 @@
       <c r="K52" s="3"/>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="10" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="3"/>
@@ -7778,7 +5576,7 @@
       <c r="K53" s="3"/>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="10" t="s">
         <v>49</v>
       </c>
       <c r="C54" s="3"/>
@@ -7792,7 +5590,7 @@
       <c r="K54" s="3"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C55" s="3"/>
@@ -7806,7 +5604,7 @@
       <c r="K55" s="3"/>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C56" s="3"/>
@@ -7820,7 +5618,7 @@
       <c r="K56" s="3"/>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C57" s="3"/>
@@ -7834,7 +5632,7 @@
       <c r="K57" s="3"/>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="10" t="s">
         <v>53</v>
       </c>
       <c r="C58" s="3"/>
@@ -7848,7 +5646,7 @@
       <c r="K58" s="3"/>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C59" s="3"/>
@@ -7862,7 +5660,7 @@
       <c r="K59" s="3"/>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>55</v>
       </c>
       <c r="C60" s="3"/>
@@ -7876,7 +5674,7 @@
       <c r="K60" s="3"/>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>56</v>
       </c>
       <c r="C61" s="3"/>
@@ -7890,7 +5688,7 @@
       <c r="K61" s="3"/>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>57</v>
       </c>
       <c r="C62" s="3"/>
@@ -7904,7 +5702,7 @@
       <c r="K62" s="3"/>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="3"/>
@@ -7918,7 +5716,7 @@
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C64" s="3"/>
@@ -7932,7 +5730,7 @@
       <c r="K64" s="3"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C65" s="3"/>
@@ -7946,7 +5744,7 @@
       <c r="K65" s="3"/>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="3"/>
@@ -7960,7 +5758,7 @@
       <c r="K66" s="3"/>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" s="13"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7972,7 +5770,7 @@
       <c r="K67" s="3"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C68" s="3"/>
@@ -7986,7 +5784,7 @@
       <c r="K68" s="3"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" s="13"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
@@ -7998,7 +5796,7 @@
       <c r="K69" s="3"/>
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" s="15" t="s">
+      <c r="B70" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C70" s="3"/>
@@ -8012,7 +5810,7 @@
       <c r="K70" s="3"/>
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="3"/>
@@ -8026,7 +5824,7 @@
       <c r="K71" s="3"/>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C72" s="3"/>
@@ -8040,7 +5838,7 @@
       <c r="K72" s="3"/>
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C73" s="3"/>
@@ -8054,7 +5852,7 @@
       <c r="K73" s="3"/>
     </row>
     <row r="74" spans="2:11" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="18" t="s">
+      <c r="B74" s="14" t="s">
         <v>156</v>
       </c>
       <c r="C74" s="3"/>
@@ -8068,7 +5866,7 @@
       <c r="K74" s="3"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="3"/>
@@ -8082,7 +5880,7 @@
       <c r="K75" s="3"/>
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>67</v>
       </c>
       <c r="C76" s="3"/>
@@ -8096,7 +5894,7 @@
       <c r="K76" s="3"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>68</v>
       </c>
       <c r="C77" s="3"/>
@@ -8110,7 +5908,7 @@
       <c r="K77" s="3"/>
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C78" s="3"/>
@@ -8124,7 +5922,7 @@
       <c r="K78" s="3"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C79" s="3"/>
@@ -8138,7 +5936,7 @@
       <c r="K79" s="3"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C80" s="3"/>
@@ -8152,7 +5950,7 @@
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>93</v>
       </c>
       <c r="C81" s="3"/>
@@ -8166,7 +5964,7 @@
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>72</v>
       </c>
       <c r="C82" s="3"/>
@@ -8180,7 +5978,7 @@
       <c r="K82" s="3"/>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>73</v>
       </c>
       <c r="C83" s="3"/>
@@ -8194,7 +5992,7 @@
       <c r="K83" s="3"/>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="10" t="s">
         <v>86</v>
       </c>
       <c r="C84" s="3"/>
@@ -8208,7 +6006,7 @@
       <c r="K84" s="3"/>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>74</v>
       </c>
       <c r="C85" s="3"/>
@@ -8222,7 +6020,7 @@
       <c r="K85" s="3"/>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C86" s="3"/>
@@ -8236,7 +6034,7 @@
       <c r="K86" s="3"/>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -8248,12 +6046,12 @@
       <c r="K87" s="3"/>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
-      <c r="E88" s="17" t="s">
+      <c r="E88" s="13" t="s">
         <v>89</v>
       </c>
       <c r="F88" s="3"/>
@@ -8264,12 +6062,12 @@
       <c r="K88" s="3"/>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
-      <c r="E89" s="17" t="s">
+      <c r="E89" s="13" t="s">
         <v>87</v>
       </c>
       <c r="F89" s="3"/>
@@ -8280,7 +6078,7 @@
       <c r="K89" s="3"/>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C90" s="3"/>
@@ -8294,7 +6092,7 @@
       <c r="K90" s="3"/>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C91" s="3"/>
@@ -8308,7 +6106,7 @@
       <c r="K91" s="3"/>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C92" s="3"/>
@@ -8322,7 +6120,7 @@
       <c r="K92" s="3"/>
     </row>
     <row r="93" spans="2:13" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="18" t="s">
+      <c r="B93" s="14" t="s">
         <v>90</v>
       </c>
       <c r="C93" s="3"/>
@@ -8336,7 +6134,7 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="10" t="s">
         <v>77</v>
       </c>
       <c r="C94" s="3"/>
@@ -8348,12 +6146,12 @@
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
-      <c r="M94" s="19" t="s">
+      <c r="M94" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="13"/>
+      <c r="B95" s="9"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -8365,7 +6163,7 @@
       <c r="K95" s="3"/>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C96" s="3"/>
@@ -8379,7 +6177,7 @@
       <c r="K96" s="3"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" s="13"/>
+      <c r="B97" s="9"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8391,7 +6189,7 @@
       <c r="K97" s="3"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C98" s="3"/>
@@ -8405,7 +6203,7 @@
       <c r="K98" s="3"/>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C99" s="3"/>
@@ -8419,7 +6217,7 @@
       <c r="K99" s="3"/>
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" s="13"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -8431,7 +6229,7 @@
       <c r="K100" s="3"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B101" s="14" t="s">
+      <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C101" s="3"/>
@@ -8445,7 +6243,7 @@
       <c r="K101" s="3"/>
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="10" t="s">
         <v>81</v>
       </c>
       <c r="C102" s="3"/>
@@ -8459,7 +6257,7 @@
       <c r="K102" s="3"/>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C103" s="3"/>
@@ -8473,7 +6271,7 @@
       <c r="K103" s="3"/>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B104" s="14" t="s">
+      <c r="B104" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C104" s="3"/>
@@ -8487,7 +6285,7 @@
       <c r="K104" s="3"/>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B105" s="13"/>
+      <c r="B105" s="9"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -8499,7 +6297,7 @@
       <c r="K105" s="3"/>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C106" s="3"/>
@@ -8513,7 +6311,7 @@
       <c r="K106" s="3"/>
     </row>
     <row r="107" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B107" s="13"/>
+      <c r="B107" s="9"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -8525,7 +6323,7 @@
       <c r="K107" s="3"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B108" s="14" t="s">
+      <c r="B108" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C108" s="3"/>
@@ -8539,7 +6337,7 @@
       <c r="K108" s="3"/>
     </row>
     <row r="109" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B109" s="14" t="s">
+      <c r="B109" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C109" s="3"/>
@@ -8570,7 +6368,7 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3"/>
@@ -8585,7 +6383,7 @@
       <c r="L3" s="3"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
@@ -8600,7 +6398,7 @@
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -8613,7 +6411,7 @@
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>101</v>
       </c>
       <c r="C6" s="3"/>
@@ -8628,7 +6426,7 @@
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>102</v>
       </c>
       <c r="C7" s="3"/>
@@ -8643,7 +6441,7 @@
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -8656,7 +6454,7 @@
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>103</v>
       </c>
       <c r="C9" s="3"/>
@@ -8671,7 +6469,7 @@
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>104</v>
       </c>
       <c r="C10" s="3"/>
@@ -8686,7 +6484,7 @@
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C11" s="3"/>
@@ -8701,7 +6499,7 @@
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>105</v>
       </c>
       <c r="C12" s="3"/>
@@ -8716,7 +6514,7 @@
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -8729,7 +6527,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3"/>
@@ -8744,7 +6542,7 @@
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="3"/>
@@ -8759,7 +6557,7 @@
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="3"/>
@@ -8774,7 +6572,7 @@
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="10" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="3"/>
@@ -8789,7 +6587,7 @@
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="10" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="3"/>
@@ -8804,7 +6602,7 @@
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="3"/>
@@ -8819,7 +6617,7 @@
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="10" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="3"/>
@@ -8834,7 +6632,7 @@
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="3"/>
@@ -8849,7 +6647,7 @@
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C22" s="3"/>
@@ -8864,7 +6662,7 @@
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -8877,7 +6675,7 @@
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="11" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="3"/>
@@ -8892,7 +6690,7 @@
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C25" s="3"/>
@@ -8907,7 +6705,7 @@
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="10" t="s">
         <v>109</v>
       </c>
       <c r="C26" s="3"/>
@@ -8922,7 +6720,7 @@
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="10" t="s">
         <v>110</v>
       </c>
       <c r="C27" s="3"/>
@@ -8937,7 +6735,7 @@
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>111</v>
       </c>
       <c r="C28" s="3"/>
@@ -8952,7 +6750,7 @@
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="10" t="s">
         <v>112</v>
       </c>
       <c r="C29" s="3"/>
@@ -8967,7 +6765,7 @@
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C30" s="3"/>
@@ -8982,7 +6780,7 @@
       <c r="L30" s="3"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C31" s="3"/>
@@ -8997,7 +6795,7 @@
       <c r="L31" s="3"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>115</v>
       </c>
       <c r="C32" s="3"/>
@@ -9012,7 +6810,7 @@
       <c r="L32" s="3"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C33" s="3"/>
@@ -9027,7 +6825,7 @@
       <c r="L33" s="3"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="10" t="s">
         <v>117</v>
       </c>
       <c r="C34" s="3"/>
@@ -9042,7 +6840,7 @@
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="10" t="s">
         <v>118</v>
       </c>
       <c r="C35" s="3"/>
@@ -9057,7 +6855,7 @@
       <c r="L35" s="3"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="10" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="3"/>
@@ -9072,7 +6870,7 @@
       <c r="L36" s="3"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="3"/>
@@ -9087,7 +6885,7 @@
       <c r="L37" s="3"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="3"/>
@@ -9102,7 +6900,7 @@
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="10" t="s">
         <v>122</v>
       </c>
       <c r="C39" s="3"/>
@@ -9117,7 +6915,7 @@
       <c r="L39" s="3"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="10" t="s">
         <v>123</v>
       </c>
       <c r="C40" s="3"/>
@@ -9132,7 +6930,7 @@
       <c r="L40" s="3"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C41" s="3"/>
@@ -9147,7 +6945,7 @@
       <c r="L41" s="3"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="3"/>
@@ -9162,7 +6960,7 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="10" t="s">
         <v>126</v>
       </c>
       <c r="C43" s="3"/>
@@ -9177,7 +6975,7 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="10" t="s">
         <v>127</v>
       </c>
       <c r="C44" s="3"/>
@@ -9192,7 +6990,7 @@
       <c r="L44" s="3"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>128</v>
       </c>
       <c r="C45" s="3"/>
@@ -9207,7 +7005,7 @@
       <c r="L45" s="3"/>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="10" t="s">
         <v>129</v>
       </c>
       <c r="C46" s="3"/>
@@ -9222,7 +7020,7 @@
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="10" t="s">
         <v>130</v>
       </c>
       <c r="C47" s="3"/>
@@ -9237,7 +7035,7 @@
       <c r="L47" s="3"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="10" t="s">
         <v>131</v>
       </c>
       <c r="C48" s="3"/>
@@ -9252,7 +7050,7 @@
       <c r="L48" s="3"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>132</v>
       </c>
       <c r="C49" s="3"/>
@@ -9267,7 +7065,7 @@
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="10" t="s">
         <v>133</v>
       </c>
       <c r="C50" s="3"/>
@@ -9282,7 +7080,7 @@
       <c r="L50" s="3"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="10" t="s">
         <v>134</v>
       </c>
       <c r="C51" s="3"/>
@@ -9297,7 +7095,7 @@
       <c r="L51" s="3"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="10" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="3"/>
@@ -9312,7 +7110,7 @@
       <c r="L52" s="3"/>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="10" t="s">
         <v>136</v>
       </c>
       <c r="C53" s="3"/>
@@ -9327,7 +7125,7 @@
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="10" t="s">
         <v>137</v>
       </c>
       <c r="C54" s="3"/>
@@ -9342,7 +7140,7 @@
       <c r="L54" s="3"/>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>138</v>
       </c>
       <c r="C55" s="3"/>
@@ -9357,7 +7155,7 @@
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="10" t="s">
         <v>139</v>
       </c>
       <c r="C56" s="3"/>
@@ -9372,7 +7170,7 @@
       <c r="L56" s="3"/>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C57" s="3"/>
@@ -9387,7 +7185,7 @@
       <c r="L57" s="3"/>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="10" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="3"/>
@@ -9402,7 +7200,7 @@
       <c r="L58" s="3"/>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="10" t="s">
         <v>60</v>
       </c>
       <c r="C59" s="3"/>
@@ -9417,7 +7215,7 @@
       <c r="L59" s="3"/>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="3"/>
@@ -9432,7 +7230,7 @@
       <c r="L60" s="3"/>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B61" s="13"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
@@ -9445,7 +7243,7 @@
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C62" s="3"/>
@@ -9460,7 +7258,7 @@
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B63" s="13"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
@@ -9473,7 +7271,7 @@
       <c r="L63" s="3"/>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C64" s="3"/>
@@ -9488,7 +7286,7 @@
       <c r="L64" s="3"/>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C65" s="3"/>
@@ -9503,7 +7301,7 @@
       <c r="L65" s="3"/>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C66" s="3"/>
@@ -9518,7 +7316,7 @@
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="10" t="s">
         <v>64</v>
       </c>
       <c r="C67" s="3"/>
@@ -9533,7 +7331,7 @@
       <c r="L67" s="3"/>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C68" s="3"/>
@@ -9548,7 +7346,7 @@
       <c r="L68" s="3"/>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>142</v>
       </c>
       <c r="C69" s="3"/>
@@ -9563,7 +7361,7 @@
       <c r="L69" s="3"/>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C70" s="3"/>
@@ -9578,7 +7376,7 @@
       <c r="L70" s="3"/>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C71" s="3"/>
@@ -9593,7 +7391,7 @@
       <c r="L71" s="3"/>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C72" s="3"/>
@@ -9608,7 +7406,7 @@
       <c r="L72" s="3"/>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C73" s="3"/>
@@ -9623,7 +7421,7 @@
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C74" s="3"/>
@@ -9638,7 +7436,7 @@
       <c r="L74" s="3"/>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="10" t="s">
         <v>148</v>
       </c>
       <c r="C75" s="3"/>
@@ -9653,7 +7451,7 @@
       <c r="L75" s="3"/>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="10" t="s">
         <v>149</v>
       </c>
       <c r="C76" s="3"/>
@@ -9668,7 +7466,7 @@
       <c r="L76" s="3"/>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="10" t="s">
         <v>99</v>
       </c>
       <c r="C77" s="3"/>
@@ -9683,7 +7481,7 @@
       <c r="L77" s="3"/>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="10" t="s">
         <v>150</v>
       </c>
       <c r="C78" s="3"/>
@@ -9698,7 +7496,7 @@
       <c r="L78" s="3"/>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="10" t="s">
         <v>151</v>
       </c>
       <c r="C79" s="3"/>
@@ -9713,7 +7511,7 @@
       <c r="L79" s="3"/>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C80" s="3"/>
@@ -9728,7 +7526,7 @@
       <c r="L80" s="3"/>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="10" t="s">
         <v>152</v>
       </c>
       <c r="C81" s="3"/>
@@ -9743,7 +7541,7 @@
       <c r="L81" s="3"/>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="10" t="s">
         <v>75</v>
       </c>
       <c r="C82" s="3"/>
@@ -9758,7 +7556,7 @@
       <c r="L82" s="3"/>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="3"/>
@@ -9773,7 +7571,7 @@
       <c r="L83" s="3"/>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C84" s="3"/>
@@ -9788,7 +7586,7 @@
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="10" t="s">
         <v>76</v>
       </c>
       <c r="C85" s="3"/>
@@ -9803,7 +7601,7 @@
       <c r="L85" s="3"/>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="10" t="s">
         <v>153</v>
       </c>
       <c r="C86" s="3"/>
@@ -9818,7 +7616,7 @@
       <c r="L86" s="3"/>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B87" s="13"/>
+      <c r="B87" s="9"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -9831,7 +7629,7 @@
       <c r="L87" s="3"/>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="10" t="s">
         <v>78</v>
       </c>
       <c r="C88" s="3"/>
@@ -9846,7 +7644,7 @@
       <c r="L88" s="3"/>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B89" s="13"/>
+      <c r="B89" s="9"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -9859,7 +7657,7 @@
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="10" t="s">
         <v>79</v>
       </c>
       <c r="C90" s="3"/>
@@ -9874,7 +7672,7 @@
       <c r="L90" s="3"/>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C91" s="3"/>
@@ -9889,7 +7687,7 @@
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B92" s="13"/>
+      <c r="B92" s="9"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -9902,7 +7700,7 @@
       <c r="L92" s="3"/>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C93" s="3"/>
@@ -9917,7 +7715,7 @@
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="10" t="s">
         <v>154</v>
       </c>
       <c r="C94" s="3"/>
@@ -9932,7 +7730,7 @@
       <c r="L94" s="3"/>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C95" s="3"/>
@@ -9947,7 +7745,7 @@
       <c r="L95" s="3"/>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C96" s="3"/>
@@ -9962,7 +7760,7 @@
       <c r="L96" s="3"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C97" s="3"/>
@@ -9977,7 +7775,7 @@
       <c r="L97" s="3"/>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B98" s="13"/>
+      <c r="B98" s="9"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -9990,7 +7788,7 @@
       <c r="L98" s="3"/>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C99" s="3"/>
@@ -10005,7 +7803,7 @@
       <c r="L99" s="3"/>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" s="13"/>
+      <c r="B100" s="9"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -10018,7 +7816,7 @@
       <c r="L100" s="3"/>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" s="13"/>
+      <c r="B101" s="9"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -10031,7 +7829,7 @@
       <c r="L101" s="3"/>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="10" t="s">
         <v>82</v>
       </c>
       <c r="C102" s="3"/>
@@ -10046,7 +7844,7 @@
       <c r="L102" s="3"/>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" s="14" t="s">
+      <c r="B103" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C103" s="3"/>

--- a/08_Protect_Mode/15 任务段实验.xlsx
+++ b/08_Protect_Mode/15 任务段实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.important\mySoftwareReverse\08_Protect_Mode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6762E60B-D626-4292-BA99-B6D74C80D6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28096B6-6A24-4F1C-81F7-9E5AF0F9515C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="170">
   <si>
     <t>任务段实验</t>
   </si>
@@ -1867,38 +1867,6 @@
         <family val="3"/>
       </rPr>
       <t>// 2.构造TSS段描述符</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>    printf(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFA31515"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>"TSS内存地址: 0x%08x\n"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">,&amp;tss);   </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF008000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>// 下断点,修改gpt</t>
     </r>
   </si>
   <si>
@@ -3631,6 +3599,53 @@
   </si>
   <si>
     <t>最后修改，其他寄存器。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>    printf(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"TSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>内存地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFA31515"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: 0x%08x\n"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">,&amp;tss);   </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       // 将其写入 GDT</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3638,7 +3653,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3825,6 +3840,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFA31515"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4401,7 +4423,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>231850</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>38000</xdr:rowOff>
+      <xdr:rowOff>7520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4702,7 +4724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -4719,7 +4741,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -4730,7 +4752,7 @@
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="K5" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -4770,7 +4792,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="P9" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,32 +4801,32 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="I10" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P10" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P11" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="15"/>
     </row>
@@ -4834,16 +4856,16 @@
     </row>
     <row r="19" spans="8:14" x14ac:dyDescent="0.3">
       <c r="H19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="L19" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4862,8 +4884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87086FC-644F-463D-A98A-9400E7AFBF20}">
   <dimension ref="B4:P109"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4896,10 +4918,10 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P5" s="3"/>
     </row>
@@ -4916,7 +4938,7 @@
       <c r="K6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -5086,7 +5108,7 @@
     </row>
     <row r="19" spans="2:12" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5156,7 +5178,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -5171,7 +5193,7 @@
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -5188,7 +5210,7 @@
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -5853,7 +5875,7 @@
     </row>
     <row r="74" spans="2:11" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -5951,7 +5973,7 @@
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -5993,7 +6015,7 @@
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -6047,12 +6069,12 @@
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -6068,7 +6090,7 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -6121,7 +6143,7 @@
     </row>
     <row r="93" spans="2:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -6134,8 +6156,8 @@
       <c r="K93" s="3"/>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B94" s="10" t="s">
-        <v>77</v>
+      <c r="B94" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -6147,11 +6169,13 @@
       <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="M94" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -6164,7 +6188,7 @@
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -6190,7 +6214,7 @@
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -6204,7 +6228,7 @@
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -6244,7 +6268,7 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -6324,7 +6348,7 @@
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -6361,7 +6385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2C81AC-62B2-42AD-BDDA-4288CBBAC13D}">
   <dimension ref="B3:L103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -6412,7 +6436,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -6427,7 +6451,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -6455,7 +6479,7 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -6470,7 +6494,7 @@
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -6500,7 +6524,7 @@
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -6573,7 +6597,7 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -6588,7 +6612,7 @@
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -6603,7 +6627,7 @@
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -6618,7 +6642,7 @@
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -6676,7 +6700,7 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -6706,7 +6730,7 @@
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -6721,7 +6745,7 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -6736,7 +6760,7 @@
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -6751,7 +6775,7 @@
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
@@ -6766,7 +6790,7 @@
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -6781,7 +6805,7 @@
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -6796,7 +6820,7 @@
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
@@ -6811,7 +6835,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -6826,7 +6850,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
@@ -6841,7 +6865,7 @@
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -6856,7 +6880,7 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -6871,7 +6895,7 @@
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
@@ -6886,7 +6910,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
@@ -6901,7 +6925,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -6916,7 +6940,7 @@
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -6931,7 +6955,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -6946,7 +6970,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -6961,7 +6985,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -6976,7 +7000,7 @@
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
@@ -6991,7 +7015,7 @@
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -7006,7 +7030,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -7021,7 +7045,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -7036,7 +7060,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -7051,7 +7075,7 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
@@ -7066,7 +7090,7 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -7081,7 +7105,7 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -7096,7 +7120,7 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -7111,7 +7135,7 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -7126,7 +7150,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -7141,7 +7165,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -7156,7 +7180,7 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -7171,7 +7195,7 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
@@ -7186,7 +7210,7 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -7347,7 +7371,7 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -7362,7 +7386,7 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -7377,7 +7401,7 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -7392,7 +7416,7 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -7407,7 +7431,7 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
@@ -7422,7 +7446,7 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -7437,7 +7461,7 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -7452,7 +7476,7 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -7467,7 +7491,7 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -7482,7 +7506,7 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -7497,7 +7521,7 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -7527,7 +7551,7 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -7602,7 +7626,7 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -7630,7 +7654,7 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -7658,7 +7682,7 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -7673,7 +7697,7 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -7716,7 +7740,7 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -7731,7 +7755,7 @@
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -7746,7 +7770,7 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -7830,7 +7854,7 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
